--- a/analysis/Analysis_TopoGO.xlsx
+++ b/analysis/Analysis_TopoGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xist\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Code\TopoGO\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B01584-6A66-48C7-AA8D-0BB878D04665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A747EF-D37C-4788-A2BF-6BE1DC496ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11734" yWindow="0" windowWidth="10209" windowHeight="13714" xr2:uid="{1AE04910-B507-4768-B368-C1A6D481461A}"/>
+    <workbookView xWindow="3804" yWindow="3804" windowWidth="23040" windowHeight="12204" xr2:uid="{1AE04910-B507-4768-B368-C1A6D481461A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Crossing</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WithMinCircle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,19 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E327-12FD-4BE7-9979-DD9A31DFAD29}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -561,7 +565,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -579,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -597,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -615,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -634,7 +638,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -653,7 +657,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -678,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -687,7 +691,7 @@
         <v>94</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:D9" si="1">SUM(C2:C8)</f>
+        <f t="shared" ref="C9:D10" si="1">SUM(C2:C8)</f>
         <v>248</v>
       </c>
       <c r="D9">
@@ -705,6 +709,14 @@
       <c r="G9">
         <f>B9/K2</f>
         <v>0.5696969696969697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Analysis_TopoGO.xlsx
+++ b/analysis/Analysis_TopoGO.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Code\TopoGO\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\TopoGO\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A747EF-D37C-4788-A2BF-6BE1DC496ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5E10CB-1B1D-4BAE-B839-D8FC6A79F3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3804" yWindow="3804" windowWidth="23040" windowHeight="12204" xr2:uid="{1AE04910-B507-4768-B368-C1A6D481461A}"/>
+    <workbookView xWindow="1431" yWindow="-103" windowWidth="20615" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,9 +33,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Crossing</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Success Rate</t>
+  </si>
+  <si>
+    <t>AllPic</t>
+  </si>
+  <si>
+    <t>WrongPic</t>
+  </si>
+  <si>
+    <t>NotAdequate</t>
+  </si>
+  <si>
+    <t>AllBadPic</t>
+  </si>
+  <si>
+    <t>OkPic</t>
+  </si>
+  <si>
+    <t>AccPic</t>
+  </si>
+  <si>
+    <t>TrueRate</t>
+  </si>
+  <si>
+    <t>StrictRate</t>
+  </si>
+  <si>
+    <t>Ver1</t>
+  </si>
+  <si>
+    <t>Ver1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_Alter</t>
+  </si>
+  <si>
+    <t>Cross_Alter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line_MinCircle</t>
+  </si>
+  <si>
+    <t>Line_MinCircle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_MinSize</t>
+  </si>
+  <si>
+    <t>Cross_MinSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross_Distance</t>
+  </si>
+  <si>
+    <t>Cross_Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,55 +117,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Failed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Success Rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WrongPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotAdequate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllBadPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OkPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccPic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StrictRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TrueRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WithMinCircle</t>
+    <t>Adaptive_Size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,19 +129,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -141,8 +174,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,7 +241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -238,26 +274,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -290,23 +309,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,29 +471,26 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E13E327-12FD-4BE7-9979-DD9A31DFAD29}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.35546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,25 +507,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -560,12 +556,8 @@
         <f>F2-I2</f>
         <v>97</v>
       </c>
-      <c r="K2">
-        <f>F2-H2</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -583,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -601,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7</v>
       </c>
@@ -619,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>8</v>
       </c>
@@ -635,10 +627,10 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.47619047619047616</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -654,10 +646,10 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.57142857142857095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
@@ -673,25 +665,28 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.26060606060606062</v>
+        <v>0.26060606060606101</v>
       </c>
       <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
+      <c r="H8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B8)</f>
         <v>94</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:D10" si="1">SUM(C2:C8)</f>
+        <f t="shared" ref="C9:D9" si="1">SUM(C2:C8)</f>
         <v>248</v>
       </c>
       <c r="D9">
@@ -700,27 +695,175 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.37903225806451613</v>
+        <v>0.37903225806451601</v>
       </c>
       <c r="F9">
         <f>B9/J2</f>
-        <v>0.96907216494845361</v>
+        <v>0.96907216494845405</v>
       </c>
       <c r="G9">
-        <f>B9/K2</f>
+        <f>B9/A18</f>
         <v>0.5696969696969697</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="H9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
         <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>142</v>
+      </c>
+      <c r="G11">
+        <f>B11/A$18</f>
+        <v>0.8606060606060606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>156</v>
+      </c>
+      <c r="G12">
+        <f>B12/A$18</f>
+        <v>0.94545454545454544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>158</v>
+      </c>
+      <c r="G13">
+        <f>B13/A$18</f>
+        <v>0.95757575757575752</v>
+      </c>
+      <c r="H13">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f>F2-H2</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <f>B21/A$18</f>
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="D21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>94</v>
+      </c>
+      <c r="C22">
+        <f>B23/A$18</f>
+        <v>0.75757575757575757</v>
+      </c>
+      <c r="D22">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>125</v>
+      </c>
+      <c r="C23">
+        <f>B23/A$18</f>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>142</v>
+      </c>
+      <c r="C24">
+        <f>B24/A$18</f>
+        <v>0.8606060606060606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>156</v>
+      </c>
+      <c r="C25">
+        <f>B25/A$18</f>
+        <v>0.94545454545454544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>158</v>
+      </c>
+      <c r="C26">
+        <f>B26/A$18</f>
+        <v>0.95757575757575752</v>
+      </c>
+      <c r="D26">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C22" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/analysis/Analysis_TopoGO.xlsx
+++ b/analysis/Analysis_TopoGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\TopoGO\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5E10CB-1B1D-4BAE-B839-D8FC6A79F3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DCCA0-B2A6-437F-8CD5-BB615CB35FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1431" yWindow="-103" windowWidth="20615" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Crossing</t>
   </si>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>Adaptive_Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line_Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,13 +487,14 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.35546875" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
@@ -756,18 +765,23 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>F2-H2</f>
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -777,8 +791,11 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -792,8 +809,17 @@
       <c r="D21">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -807,8 +833,21 @@
       <c r="D22">
         <v>395</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <v>146</v>
+      </c>
+      <c r="H22">
+        <f>G22/F20</f>
+        <v>0.9668874172185431</v>
+      </c>
+      <c r="I22">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -820,7 +859,7 @@
         <v>0.75757575757575757</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -832,7 +871,7 @@
         <v>0.8606060606060606</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -844,7 +883,7 @@
         <v>0.94545454545454544</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>

--- a/analysis/Analysis_TopoGO.xlsx
+++ b/analysis/Analysis_TopoGO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\TopoGO\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DCCA0-B2A6-437F-8CD5-BB615CB35FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA95A1D-77C3-4A51-B16C-923FC12F532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1431" yWindow="-103" windowWidth="20615" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3043" yWindow="1509" windowWidth="15308" windowHeight="9994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -882,6 +882,9 @@
         <f>B25/A$18</f>
         <v>0.94545454545454544</v>
       </c>
+      <c r="D25">
+        <v>855</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">

--- a/analysis/Analysis_TopoGO.xlsx
+++ b/analysis/Analysis_TopoGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\TopoGO\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5E10CB-1B1D-4BAE-B839-D8FC6A79F3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0402A613-6434-4ECF-874F-6537D85EA18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1431" yWindow="-103" windowWidth="20615" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Crossing</t>
   </si>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>Adaptive_Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccPic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +487,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -487,7 +495,7 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.35546875" customWidth="1"/>
     <col min="7" max="7" width="12.7109375"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -756,18 +764,26 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>F2-H2</f>
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -777,8 +793,17 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -792,8 +817,21 @@
       <c r="D21">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>56</v>
+      </c>
+      <c r="I21">
+        <f>H21/G$19</f>
+        <v>0.37086092715231789</v>
+      </c>
+      <c r="J21">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -807,8 +845,21 @@
       <c r="D22">
         <v>395</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22">
+        <v>64</v>
+      </c>
+      <c r="I22">
+        <f>H22/G$19</f>
+        <v>0.42384105960264901</v>
+      </c>
+      <c r="J22">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -819,8 +870,21 @@
         <f>B23/A$18</f>
         <v>0.75757575757575757</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23">
+        <v>144</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:I24" si="2">H23/G$19</f>
+        <v>0.95364238410596025</v>
+      </c>
+      <c r="J23">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -831,8 +895,9 @@
         <f>B24/A$18</f>
         <v>0.8606060606060606</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -844,7 +909,7 @@
         <v>0.94545454545454544</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
